--- a/Copa America Analisis/Data/Data_Copa_America_2024.xlsx
+++ b/Copa America Analisis/Data/Data_Copa_America_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\OneDrive\Documents\Genpact\Prueba 4B\Gen_Tests\Copa America Analisis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD42742E-F088-47D1-AABA-1846013C04CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21914DBF-CF78-476F-B211-C592121696B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{8E0829A6-1D02-4392-90BC-48C47057AE43}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8E0829A6-1D02-4392-90BC-48C47057AE43}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipos" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="159">
   <si>
     <t>POS</t>
   </si>
@@ -56,12 +56,6 @@
     <t>Equipo</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>Lautaro Martínez</t>
   </si>
   <si>
@@ -494,15 +488,6 @@
     <t>Final</t>
   </si>
   <si>
-    <t>TA</t>
-  </si>
-  <si>
-    <t>PTS</t>
-  </si>
-  <si>
-    <t>RC</t>
-  </si>
-  <si>
     <t>Grupo</t>
   </si>
   <si>
@@ -519,6 +504,24 @@
   </si>
   <si>
     <t>Partido por Tercer Lugar</t>
+  </si>
+  <si>
+    <t>Partidos Jugados</t>
+  </si>
+  <si>
+    <t>Goles Anotados</t>
+  </si>
+  <si>
+    <t>Asistencias</t>
+  </si>
+  <si>
+    <t>Tarjetas Amarillas</t>
+  </si>
+  <si>
+    <t>Tarjetas Rojas</t>
+  </si>
+  <si>
+    <t>Puntos</t>
   </si>
 </sst>
 </file>
@@ -945,7 +948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325299AC-CE5C-4B0D-960A-FAB932BC1B4E}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -958,186 +961,186 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1153,10 +1156,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
@@ -1174,10 +1178,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1185,10 +1189,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2">
         <v>6</v>
@@ -1202,10 +1206,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
         <v>4</v>
@@ -1219,10 +1223,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
         <v>6</v>
@@ -1236,10 +1240,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
         <v>6</v>
@@ -1253,10 +1257,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
         <v>6</v>
@@ -1270,10 +1274,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
@@ -1287,10 +1291,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2">
         <v>6</v>
@@ -1304,10 +1308,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2">
         <v>6</v>
@@ -1321,10 +1325,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2">
         <v>5</v>
@@ -1338,10 +1342,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
@@ -1355,10 +1359,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2">
         <v>5</v>
@@ -1372,10 +1376,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2">
         <v>4</v>
@@ -1389,10 +1393,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" s="2">
         <v>4</v>
@@ -1406,10 +1410,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2">
         <v>3</v>
@@ -1423,10 +1427,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
@@ -1440,10 +1444,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2">
         <v>6</v>
@@ -1457,10 +1461,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2">
         <v>6</v>
@@ -1474,10 +1478,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2">
         <v>6</v>
@@ -1491,10 +1495,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2">
         <v>6</v>
@@ -1508,10 +1512,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2">
         <v>6</v>
@@ -1525,10 +1529,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2">
         <v>6</v>
@@ -1542,10 +1546,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2">
         <v>5</v>
@@ -1559,10 +1563,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2">
         <v>5</v>
@@ -1576,10 +1580,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D25" s="2">
         <v>5</v>
@@ -1593,10 +1597,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2">
         <v>5</v>
@@ -1610,10 +1614,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2">
         <v>5</v>
@@ -1627,10 +1631,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D28" s="2">
         <v>4</v>
@@ -1644,10 +1648,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D29" s="2">
         <v>4</v>
@@ -1661,10 +1665,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2">
         <v>4</v>
@@ -1678,10 +1682,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D31" s="2">
         <v>4</v>
@@ -1695,10 +1699,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D32" s="2">
         <v>4</v>
@@ -1712,10 +1716,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D33" s="2">
         <v>4</v>
@@ -1729,10 +1733,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D34" s="2">
         <v>4</v>
@@ -1746,10 +1750,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D35" s="2">
         <v>4</v>
@@ -1763,10 +1767,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D36" s="2">
         <v>4</v>
@@ -1780,10 +1784,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D37" s="2">
         <v>4</v>
@@ -1797,10 +1801,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D38" s="2">
         <v>4</v>
@@ -1814,10 +1818,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D39" s="2">
         <v>3</v>
@@ -1831,10 +1835,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2">
         <v>3</v>
@@ -1848,10 +1852,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D41" s="2">
         <v>3</v>
@@ -1865,10 +1869,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D42" s="2">
         <v>3</v>
@@ -1882,10 +1886,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D43" s="2">
         <v>3</v>
@@ -1899,10 +1903,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D44" s="2">
         <v>3</v>
@@ -1916,10 +1920,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D45" s="2">
         <v>3</v>
@@ -1933,10 +1937,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D46" s="2">
         <v>3</v>
@@ -1950,10 +1954,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D47" s="2">
         <v>3</v>
@@ -1967,10 +1971,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D48" s="2">
         <v>2</v>
@@ -1984,10 +1988,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D49" s="2">
         <v>2</v>
@@ -2001,10 +2005,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D50" s="2">
         <v>2</v>
@@ -2018,10 +2022,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D51" s="2">
         <v>2</v>
@@ -2031,7 +2035,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E51" xr:uid="{F8DBC2FC-25BC-455E-ABAE-B49B2DBBB1AA}"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.espn.com.gt/futbol/jugador/_/id/219713/lautaro-martinez" xr:uid="{A0FD5BA2-A684-4C85-B687-433F86F82D78}"/>
     <hyperlink ref="C2" r:id="rId2" display="https://www.espn.com.gt/futbol/equipo/_/id/202/argentina" xr:uid="{653656F6-29F3-4181-886B-69D4C6373F00}"/>
@@ -2146,10 +2149,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2163,10 +2167,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2174,10 +2178,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>6</v>
@@ -2191,10 +2195,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
@@ -2208,10 +2212,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
@@ -2225,10 +2229,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
@@ -2242,10 +2246,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
@@ -2259,10 +2263,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
@@ -2276,10 +2280,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2">
         <v>6</v>
@@ -2293,10 +2297,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2">
         <v>6</v>
@@ -2310,10 +2314,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2">
         <v>6</v>
@@ -2327,10 +2331,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2">
         <v>6</v>
@@ -2344,10 +2348,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2">
         <v>6</v>
@@ -2361,10 +2365,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2">
         <v>5</v>
@@ -2378,10 +2382,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2">
         <v>5</v>
@@ -2395,10 +2399,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2">
         <v>5</v>
@@ -2412,10 +2416,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D16" s="2">
         <v>5</v>
@@ -2429,10 +2433,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2">
         <v>5</v>
@@ -2446,10 +2450,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D18" s="2">
         <v>5</v>
@@ -2463,10 +2467,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2">
         <v>5</v>
@@ -2480,10 +2484,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D20" s="2">
         <v>5</v>
@@ -2497,10 +2501,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2">
         <v>5</v>
@@ -2514,10 +2518,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" s="2">
         <v>4</v>
@@ -2531,10 +2535,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2">
         <v>4</v>
@@ -2548,10 +2552,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D24" s="2">
         <v>4</v>
@@ -2565,10 +2569,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2">
         <v>4</v>
@@ -2582,10 +2586,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D26" s="2">
         <v>4</v>
@@ -2599,10 +2603,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D27" s="2">
         <v>4</v>
@@ -2616,10 +2620,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2">
         <v>4</v>
@@ -2633,10 +2637,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D29" s="2">
         <v>4</v>
@@ -2650,10 +2654,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D30" s="2">
         <v>4</v>
@@ -2667,10 +2671,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2">
         <v>3</v>
@@ -2684,10 +2688,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2">
         <v>3</v>
@@ -2701,10 +2705,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D33" s="2">
         <v>3</v>
@@ -2718,10 +2722,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D34" s="2">
         <v>3</v>
@@ -2735,10 +2739,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="2">
         <v>3</v>
@@ -2752,10 +2756,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D36" s="2">
         <v>3</v>
@@ -2769,10 +2773,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D37" s="2">
         <v>3</v>
@@ -2786,10 +2790,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D38" s="2">
         <v>3</v>
@@ -2803,10 +2807,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D39" s="2">
         <v>3</v>
@@ -2820,10 +2824,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D40" s="2">
         <v>3</v>
@@ -2837,10 +2841,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D41" s="2">
         <v>2</v>
@@ -2854,10 +2858,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
@@ -2871,10 +2875,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -2888,10 +2892,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D44" s="2">
         <v>6</v>
@@ -2905,10 +2909,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2">
         <v>6</v>
@@ -2922,10 +2926,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D46" s="2">
         <v>6</v>
@@ -2939,10 +2943,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D47" s="2">
         <v>6</v>
@@ -2956,10 +2960,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D48" s="2">
         <v>6</v>
@@ -2973,10 +2977,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D49" s="2">
         <v>6</v>
@@ -2990,10 +2994,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D50" s="2">
         <v>6</v>
@@ -3007,10 +3011,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D51" s="2">
         <v>6</v>
@@ -3020,7 +3024,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E51" xr:uid="{389CFE48-8980-44E4-9C31-E2B8445553E3}"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.espn.com.gt/futbol/jugador/_/id/82816/james-rodriguez" xr:uid="{B473B565-1024-4AA3-AAEE-B8B41B3F7535}"/>
     <hyperlink ref="C2" r:id="rId2" display="https://www.espn.com.gt/futbol/equipo/_/id/208/colombia" xr:uid="{49B614F4-655E-4162-B019-9429F6DC72BA}"/>
@@ -3135,12 +3138,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3151,16 +3154,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3168,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
         <v>6</v>
@@ -3188,7 +3191,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
         <v>6</v>
@@ -3208,7 +3211,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>6</v>
@@ -3228,7 +3231,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
@@ -3248,7 +3251,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -3268,7 +3271,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
@@ -3288,7 +3291,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
@@ -3308,7 +3311,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
@@ -3328,7 +3331,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
@@ -3348,7 +3351,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
@@ -3368,7 +3371,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
@@ -3388,7 +3391,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
@@ -3408,7 +3411,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
@@ -3428,7 +3431,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2">
         <v>4</v>
@@ -3448,7 +3451,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
@@ -3468,7 +3471,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2">
         <v>3</v>
@@ -3513,7 +3516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21418313-F16C-479C-9791-234BAC2CFED9}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3525,33 +3528,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
         <v>124</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" t="s">
-        <v>127</v>
-      </c>
       <c r="E1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3559,16 +3562,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3576,16 +3579,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -3593,16 +3596,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -3610,16 +3613,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -3627,16 +3630,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3644,16 +3647,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3661,16 +3664,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3678,16 +3681,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -3695,16 +3698,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -3712,16 +3715,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -3729,16 +3732,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -3746,16 +3749,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -3763,16 +3766,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -3780,16 +3783,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -3797,16 +3800,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -3814,16 +3817,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -3831,16 +3834,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -3848,16 +3851,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -3865,16 +3868,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -3882,16 +3885,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -3899,16 +3902,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -3916,16 +3919,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -3933,16 +3936,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -3950,16 +3953,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E26">
         <v>4</v>
@@ -3967,16 +3970,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -3984,16 +3987,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E28">
         <v>4</v>
@@ -4001,16 +4004,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -4018,16 +4021,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -4035,16 +4038,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E31">
         <v>5</v>
@@ -4052,16 +4055,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E32">
         <v>6</v>
@@ -4069,16 +4072,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E33">
         <v>6</v>
